--- a/modules/list.xlsx
+++ b/modules/list.xlsx
@@ -563,10 +563,10 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ­ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ³ ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ°ÃÂÃÂ£ÃÂÃÂÃÂÃÂ´ÃÂÃÂ£ÃÂÃÂÃÂÃÂ·ÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂ¯"/>
-        <a:font script="Hang" typeface="ÃÂÃÂ«ÃÂÃÂ§ÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂ ÃÂÃÂªÃÂÃÂ³ÃÂÃÂ ÃÂÃÂ«ÃÂÃÂÃÂÃÂ"/>
-        <a:font script="Hans" typeface="ÃÂÃÂ¥ÃÂÃÂ®ÃÂÃÂÃÂÃÂ¤ÃÂÃÂ½ÃÂÃÂ"/>
-        <a:font script="Hant" typeface="ÃÂÃÂ¦ÃÂÃÂÃÂÃÂ°ÃÂÃÂ§ÃÂÃÂ´ÃÂÃÂ°ÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂ«ÃÂÃÂ"/>
+        <a:font script="Jpan" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ­ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ·ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯"/>
+        <a:font script="Hang" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂªÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hans" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¥ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ®ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¤ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ½ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hant" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -615,10 +615,10 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ­ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ³ ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ°ÃÂÃÂ£ÃÂÃÂÃÂÃÂ´ÃÂÃÂ£ÃÂÃÂÃÂÃÂ·ÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂ¯"/>
-        <a:font script="Hang" typeface="ÃÂÃÂ«ÃÂÃÂ§ÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂ ÃÂÃÂªÃÂÃÂ³ÃÂÃÂ ÃÂÃÂ«ÃÂÃÂÃÂÃÂ"/>
-        <a:font script="Hans" typeface="ÃÂÃÂ¥ÃÂÃÂ®ÃÂÃÂÃÂÃÂ¤ÃÂÃÂ½ÃÂÃÂ"/>
-        <a:font script="Hant" typeface="ÃÂÃÂ¦ÃÂÃÂÃÂÃÂ°ÃÂÃÂ§ÃÂÃÂ´ÃÂÃÂ°ÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂ«ÃÂÃÂ"/>
+        <a:font script="Jpan" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ­ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ·ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯"/>
+        <a:font script="Hang" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂªÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hans" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¥ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ®ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¤ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ½ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hant" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1422,28 +1422,28 @@
         <v>5</v>
       </c>
       <c r="C13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/15</v>
       </c>
       <c r="E13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J13" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
@@ -1451,28 +1451,28 @@
         <v>6</v>
       </c>
       <c r="C14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>samir</v>
       </c>
       <c r="D14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/15</v>
       </c>
       <c r="E14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J14" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
@@ -1480,28 +1480,28 @@
         <v>7</v>
       </c>
       <c r="C15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Acdaz</v>
       </c>
       <c r="D15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/8</v>
       </c>
       <c r="E15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaa</v>
       </c>
       <c r="H15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaa</v>
       </c>
       <c r="I15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J15" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaaaa</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
@@ -1509,28 +1509,28 @@
         <v>8</v>
       </c>
       <c r="C16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>wajdi</v>
       </c>
       <c r="D16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/6</v>
       </c>
       <c r="E16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>مقرين</v>
       </c>
       <c r="F16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J16" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
@@ -1538,28 +1538,28 @@
         <v>9</v>
       </c>
       <c r="C17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/28</v>
       </c>
       <c r="E17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>z</v>
       </c>
       <c r="F17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J17" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>r</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
@@ -1567,28 +1567,28 @@
         <v>10</v>
       </c>
       <c r="C18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/28</v>
       </c>
       <c r="E18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>z</v>
       </c>
       <c r="F18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J18" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>r</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
@@ -1596,28 +1596,28 @@
         <v>11</v>
       </c>
       <c r="C19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/28</v>
       </c>
       <c r="E19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>z</v>
       </c>
       <c r="F19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J19" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>r</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
@@ -1625,28 +1625,28 @@
         <v>12</v>
       </c>
       <c r="C20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/28</v>
       </c>
       <c r="E20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>z</v>
       </c>
       <c r="F20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J20" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>r</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
@@ -1654,28 +1654,28 @@
         <v>13</v>
       </c>
       <c r="C21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/1</v>
       </c>
       <c r="E21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أنثى</v>
       </c>
       <c r="G21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J21" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
@@ -1683,28 +1683,28 @@
         <v>14</v>
       </c>
       <c r="C22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/22</v>
       </c>
       <c r="E22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>21</v>
       </c>
       <c r="H22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J22" s="21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>r</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">

--- a/modules/list.xlsx
+++ b/modules/list.xlsx
@@ -499,10 +499,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ÃÂ¯ÃÂ¼ÃÂ­ÃÂ¯ÃÂ¼ÃÂ³ ÃÂ¯ÃÂ¼ÃÂ°ÃÂ£ÃÂÃÂ´ÃÂ£ÃÂÃÂ·ÃÂ£ÃÂÃÂÃÂ£ÃÂÃÂ¯"/>
-        <a:font script="Hang" typeface="ÃÂ«ÃÂ§ÃÂÃÂ¬ÃÂÃÂ ÃÂªÃÂ³ÃÂ ÃÂ«ÃÂÃÂ"/>
-        <a:font script="Hans" typeface="ÃÂ¥ÃÂ®ÃÂÃÂ¤ÃÂ½ÃÂ"/>
-        <a:font script="Hant" typeface="ÃÂ¦ÃÂÃÂ°ÃÂ§ÃÂ´ÃÂ°ÃÂ¦ÃÂÃÂÃÂ©ÃÂ«ÃÂ"/>
+        <a:font script="Jpan" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ­ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ·ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯"/>
+        <a:font script="Hang" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂªÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hans" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¥ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ®ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¤ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ½ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hant" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -534,10 +534,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ÃÂ¯ÃÂ¼ÃÂ­ÃÂ¯ÃÂ¼ÃÂ³ ÃÂ¯ÃÂ¼ÃÂ°ÃÂ£ÃÂÃÂ´ÃÂ£ÃÂÃÂ·ÃÂ£ÃÂÃÂÃÂ£ÃÂÃÂ¯"/>
-        <a:font script="Hang" typeface="ÃÂ«ÃÂ§ÃÂÃÂ¬ÃÂÃÂ ÃÂªÃÂ³ÃÂ ÃÂ«ÃÂÃÂ"/>
-        <a:font script="Hans" typeface="ÃÂ¥ÃÂ®ÃÂÃÂ¤ÃÂ½ÃÂ"/>
-        <a:font script="Hant" typeface="ÃÂ¦ÃÂÃÂ°ÃÂ§ÃÂ´ÃÂ°ÃÂ¦ÃÂÃÂÃÂ©ÃÂ«ÃÂ"/>
+        <a:font script="Jpan" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ­ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¼ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ·ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¯"/>
+        <a:font script="Hang" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂªÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ³ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hans" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¥ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ®ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¤ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ½ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hant" typeface="ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ§ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ´ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ°ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ«ÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂÃÂ"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1179,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3111"/>
+  <dimension ref="A1:K3111"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
@@ -1237,6 +1237,9 @@
       <c r="J8" s="17" t="str">
         <v>الرابطة</v>
       </c>
+      <c r="K8" s="17" t="str">
+        <v>طبعت؟</v>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="B9" s="18">
@@ -1266,6 +1269,9 @@
       <c r="J9" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K9" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="B10" s="18">
@@ -1295,6 +1301,9 @@
       <c r="J10" s="19" t="str">
         <v>المحترفة الأولى</v>
       </c>
+      <c r="K10" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="B11" s="18">
@@ -1324,6 +1333,9 @@
       <c r="J11" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="B12" s="18">
@@ -1353,6 +1365,9 @@
       <c r="J12" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="B13" s="18">
@@ -1382,6 +1397,9 @@
       <c r="J13" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K13" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="18">
@@ -1411,6 +1429,9 @@
       <c r="J14" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K14" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="18">
@@ -1440,6 +1461,9 @@
       <c r="J15" s="19" t="str">
         <v>aaaaaaaaaaaaaaa</v>
       </c>
+      <c r="K15" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="B16" s="18">
@@ -1469,6 +1493,9 @@
       <c r="J16" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K16" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="B17" s="18">
@@ -1498,6 +1525,9 @@
       <c r="J17" s="19" t="str">
         <v>r</v>
       </c>
+      <c r="K17" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="B18" s="18">
@@ -1527,6 +1557,9 @@
       <c r="J18" s="19" t="str">
         <v>r</v>
       </c>
+      <c r="K18" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="B19" s="18">
@@ -1556,6 +1589,9 @@
       <c r="J19" s="19" t="str">
         <v>r</v>
       </c>
+      <c r="K19" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="B20" s="18">
@@ -1585,6 +1621,9 @@
       <c r="J20" s="19" t="str">
         <v>r</v>
       </c>
+      <c r="K20" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="B21" s="18">
@@ -1614,6 +1653,9 @@
       <c r="J21" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K21" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="B22" s="18">
@@ -1643,6 +1685,9 @@
       <c r="J22" s="19" t="str">
         <v>r</v>
       </c>
+      <c r="K22" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="18">
@@ -1672,6 +1717,9 @@
       <c r="J23" s="19" t="str">
         <v>bb</v>
       </c>
+      <c r="K23" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="B24" s="18">
@@ -1701,6 +1749,9 @@
       <c r="J24" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K24" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="B25" s="18">
@@ -1730,6 +1781,9 @@
       <c r="J25" s="19" t="str">
         <v>aaaaaaaaaaaaaaa</v>
       </c>
+      <c r="K25" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="B26" s="18">
@@ -1759,6 +1813,9 @@
       <c r="J26" s="19" t="str">
         <v>aaaaaaaaaaaaaaa</v>
       </c>
+      <c r="K26" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="B27" s="18">
@@ -1788,6 +1845,9 @@
       <c r="J27" s="19" t="str">
         <v>aaaaaaaaaaaaaaa</v>
       </c>
+      <c r="K27" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="B28" s="18">
@@ -1817,6 +1877,9 @@
       <c r="J28" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K28" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="B29" s="18">
@@ -1846,6 +1909,9 @@
       <c r="J29" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K29" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="B30" s="18">
@@ -1875,6 +1941,9 @@
       <c r="J30" s="19" t="str">
         <v>1</v>
       </c>
+      <c r="K30" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="31" ht="30" customHeight="1">
       <c r="B31" s="18">
@@ -1904,6 +1973,9 @@
       <c r="J31" s="19" t="str">
         <v>المحترفة الأولى</v>
       </c>
+      <c r="K31" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="18">
@@ -1933,33 +2005,39 @@
       <c r="J32" s="19" t="str">
         <v>المحترفة الأولى</v>
       </c>
+      <c r="K32" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="B33" s="18">
         <v>25</v>
       </c>
       <c r="C33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/28</v>
       </c>
       <c r="E33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I33" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J33" s="19" t="str">
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K33" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1968,27 +2046,30 @@
         <v>26</v>
       </c>
       <c r="C34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/8</v>
       </c>
       <c r="E34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
       <c r="F34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaa</v>
       </c>
       <c r="I34" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J34" s="19" t="str">
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K34" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1997,27 +2078,30 @@
         <v>27</v>
       </c>
       <c r="C35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/8</v>
       </c>
       <c r="E35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
       <c r="F35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaa</v>
       </c>
       <c r="I35" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J35" s="19" t="str">
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K35" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2026,28 +2110,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/8</v>
       </c>
       <c r="E36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
       <c r="F36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaa</v>
       </c>
       <c r="I36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J36" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K36" s="19" t="str">
+        <v>لا</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1">
@@ -2055,28 +2142,31 @@
         <v>29</v>
       </c>
       <c r="C37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/8</v>
       </c>
       <c r="E37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
       <c r="F37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaa</v>
       </c>
       <c r="I37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J37" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K37" s="19" t="str">
+        <v>نعم</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1">
@@ -2084,28 +2174,31 @@
         <v>30</v>
       </c>
       <c r="C38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/8</v>
       </c>
       <c r="E38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
       <c r="F38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aaaaaaaaaaaaa</v>
       </c>
       <c r="I38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J38" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K38" s="19" t="str">
+        <v>نعم</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1">
@@ -2113,28 +2206,31 @@
         <v>31</v>
       </c>
       <c r="C39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/3</v>
       </c>
       <c r="E39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J39" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
+      </c>
+      <c r="K39" s="19" t="str">
+        <v>نعم</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1">
@@ -2142,28 +2238,31 @@
         <v>32</v>
       </c>
       <c r="C40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/30</v>
       </c>
       <c r="E40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J40" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K40" s="19" t="str">
+        <v>لا</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
@@ -2171,28 +2270,31 @@
         <v>33</v>
       </c>
       <c r="C41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>amine</v>
       </c>
       <c r="D41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/21</v>
       </c>
       <c r="E41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>21</v>
       </c>
       <c r="H41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J41" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
+      </c>
+      <c r="K41" s="19" t="str">
+        <v>لا</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1">
@@ -2200,28 +2302,31 @@
         <v>34</v>
       </c>
       <c r="C42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/11/30</v>
       </c>
       <c r="E42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>3000</v>
       </c>
       <c r="H42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كاراتي</v>
       </c>
       <c r="J42" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1</v>
+      </c>
+      <c r="K42" s="19" t="str">
+        <v>لا</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1">
@@ -2229,28 +2334,31 @@
         <v>35</v>
       </c>
       <c r="C43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أمين</v>
       </c>
       <c r="D43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>2021/12/21</v>
       </c>
       <c r="E43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>توزر</v>
       </c>
       <c r="F43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ذكر</v>
       </c>
       <c r="G43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>21</v>
       </c>
       <c r="H43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>أكابر</v>
       </c>
       <c r="I43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>كراتي</v>
       </c>
       <c r="J43" s="19" t="str">
-        <v xml:space="preserve"> </v>
+        <v>المحترفة الأولى</v>
+      </c>
+      <c r="K43" s="19" t="str">
+        <v>نعم</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1">
@@ -2281,6 +2389,9 @@
       <c r="J44" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K44" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="B45" s="18">
@@ -2310,6 +2421,9 @@
       <c r="J45" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K45" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="46" ht="30" customHeight="1">
       <c r="B46" s="18">
@@ -2339,6 +2453,9 @@
       <c r="J46" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K46" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="B47" s="18">
@@ -2368,6 +2485,9 @@
       <c r="J47" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K47" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="B48" s="18">
@@ -2397,6 +2517,9 @@
       <c r="J48" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K48" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="B49" s="18">
@@ -2426,6 +2549,9 @@
       <c r="J49" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K49" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="18">
@@ -2455,6 +2581,9 @@
       <c r="J50" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K50" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="51" ht="30" customHeight="1">
       <c r="B51" s="18">
@@ -2484,6 +2613,9 @@
       <c r="J51" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K51" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="B52" s="18">
@@ -2513,6 +2645,9 @@
       <c r="J52" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K52" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="B53" s="18">
@@ -2542,6 +2677,9 @@
       <c r="J53" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K53" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="B54" s="18">
@@ -2571,6 +2709,9 @@
       <c r="J54" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K54" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="55" ht="30" customHeight="1">
       <c r="B55" s="18">
@@ -2600,6 +2741,9 @@
       <c r="J55" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K55" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="B56" s="18">
@@ -2629,6 +2773,9 @@
       <c r="J56" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K56" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="B57" s="18">
@@ -2658,6 +2805,9 @@
       <c r="J57" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K57" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="B58" s="18">
@@ -2687,6 +2837,9 @@
       <c r="J58" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K58" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="18">
@@ -2716,6 +2869,9 @@
       <c r="J59" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K59" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="B60" s="18">
@@ -2745,6 +2901,9 @@
       <c r="J60" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K60" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="B61" s="18">
@@ -2774,6 +2933,9 @@
       <c r="J61" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K61" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="B62" s="18">
@@ -2803,6 +2965,9 @@
       <c r="J62" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K62" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="B63" s="18">
@@ -2832,6 +2997,9 @@
       <c r="J63" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K63" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="64" ht="30" customHeight="1">
       <c r="B64" s="18">
@@ -2861,6 +3029,9 @@
       <c r="J64" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K64" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="B65" s="18">
@@ -2890,6 +3061,9 @@
       <c r="J65" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K65" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="B66" s="18">
@@ -2919,6 +3093,9 @@
       <c r="J66" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K66" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="67" ht="30" customHeight="1">
       <c r="B67" s="18">
@@ -2948,6 +3125,9 @@
       <c r="J67" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K67" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="18">
@@ -2977,6 +3157,9 @@
       <c r="J68" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K68" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="B69" s="18">
@@ -3006,6 +3189,9 @@
       <c r="J69" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K69" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="70" ht="30" customHeight="1">
       <c r="B70" s="18">
@@ -3035,6 +3221,9 @@
       <c r="J70" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K70" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="B71" s="18">
@@ -3064,6 +3253,9 @@
       <c r="J71" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K71" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="72" ht="30" customHeight="1">
       <c r="B72" s="18">
@@ -3093,6 +3285,9 @@
       <c r="J72" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K72" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="B73" s="18">
@@ -3122,6 +3317,9 @@
       <c r="J73" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K73" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="B74" s="18">
@@ -3151,6 +3349,9 @@
       <c r="J74" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K74" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="B75" s="18">
@@ -3180,6 +3381,9 @@
       <c r="J75" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K75" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="B76" s="18">
@@ -3209,6 +3413,9 @@
       <c r="J76" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K76" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="18">
@@ -3238,6 +3445,9 @@
       <c r="J77" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K77" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="B78" s="18">
@@ -3267,6 +3477,9 @@
       <c r="J78" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K78" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="B79" s="18">
@@ -3296,6 +3509,9 @@
       <c r="J79" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K79" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="B80" s="18">
@@ -3325,6 +3541,9 @@
       <c r="J80" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K80" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="B81" s="18">
@@ -3354,6 +3573,9 @@
       <c r="J81" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K81" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="B82" s="18">
@@ -3383,6 +3605,9 @@
       <c r="J82" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K82" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="B83" s="18">
@@ -3412,6 +3637,9 @@
       <c r="J83" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K83" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="84" ht="30" customHeight="1">
       <c r="B84" s="18">
@@ -3441,6 +3669,9 @@
       <c r="J84" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K84" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="B85" s="18">
@@ -3470,6 +3701,9 @@
       <c r="J85" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K85" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="18">
@@ -3499,6 +3733,9 @@
       <c r="J86" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K86" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="B87" s="18">
@@ -3528,6 +3765,9 @@
       <c r="J87" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K87" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="B88" s="18">
@@ -3557,6 +3797,9 @@
       <c r="J88" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K88" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="89" ht="30" customHeight="1">
       <c r="B89" s="18">
@@ -3586,6 +3829,9 @@
       <c r="J89" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K89" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="90" ht="30" customHeight="1">
       <c r="B90" s="18">
@@ -3615,6 +3861,9 @@
       <c r="J90" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K90" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="91" ht="30" customHeight="1">
       <c r="B91" s="18">
@@ -3644,6 +3893,9 @@
       <c r="J91" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K91" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="B92" s="18">
@@ -3673,6 +3925,9 @@
       <c r="J92" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K92" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="B93" s="18">
@@ -3702,6 +3957,9 @@
       <c r="J93" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K93" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="94" ht="30" customHeight="1">
       <c r="B94" s="18">
@@ -3731,6 +3989,9 @@
       <c r="J94" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K94" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="18">
@@ -3760,6 +4021,9 @@
       <c r="J95" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K95" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="96" ht="30" customHeight="1">
       <c r="B96" s="18">
@@ -3789,6 +4053,9 @@
       <c r="J96" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K96" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="97" ht="30" customHeight="1">
       <c r="B97" s="18">
@@ -3818,6 +4085,9 @@
       <c r="J97" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K97" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="B98" s="18">
@@ -3847,6 +4117,9 @@
       <c r="J98" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K98" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="B99" s="18">
@@ -3876,6 +4149,9 @@
       <c r="J99" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K99" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="100" ht="30" customHeight="1">
       <c r="B100" s="18">
@@ -3905,6 +4181,9 @@
       <c r="J100" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K100" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="101" ht="30" customHeight="1">
       <c r="B101" s="18">
@@ -3934,6 +4213,9 @@
       <c r="J101" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K101" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="102" ht="30" customHeight="1">
       <c r="B102" s="18">
@@ -3963,6 +4245,9 @@
       <c r="J102" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K102" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="103" ht="30" customHeight="1">
       <c r="B103" s="18">
@@ -3992,6 +4277,9 @@
       <c r="J103" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K103" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="18">
@@ -4021,6 +4309,9 @@
       <c r="J104" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K104" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="105" ht="30" customHeight="1">
       <c r="B105" s="18">
@@ -4050,6 +4341,9 @@
       <c r="J105" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K105" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="106" ht="30" customHeight="1">
       <c r="B106" s="18">
@@ -4079,6 +4373,9 @@
       <c r="J106" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K106" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="107" ht="30" customHeight="1">
       <c r="B107" s="18">
@@ -4108,6 +4405,9 @@
       <c r="J107" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K107" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="108" ht="30" customHeight="1">
       <c r="B108" s="18">
@@ -4137,6 +4437,9 @@
       <c r="J108" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K108" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="109" ht="30" customHeight="1">
       <c r="B109" s="18">
@@ -4166,6 +4469,9 @@
       <c r="J109" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K109" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="110" ht="30" customHeight="1">
       <c r="B110" s="18">
@@ -4195,6 +4501,9 @@
       <c r="J110" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K110" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="111" ht="30" customHeight="1">
       <c r="B111" s="18">
@@ -4224,6 +4533,9 @@
       <c r="J111" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K111" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="112" ht="30" customHeight="1">
       <c r="B112" s="18">
@@ -4253,6 +4565,9 @@
       <c r="J112" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K112" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="18">
@@ -4282,6 +4597,9 @@
       <c r="J113" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K113" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="B114" s="18">
@@ -4311,6 +4629,9 @@
       <c r="J114" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K114" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="115" ht="30" customHeight="1">
       <c r="B115" s="18">
@@ -4340,6 +4661,9 @@
       <c r="J115" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K115" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="116" ht="30" customHeight="1">
       <c r="B116" s="18">
@@ -4369,6 +4693,9 @@
       <c r="J116" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K116" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="B117" s="18">
@@ -4398,6 +4725,9 @@
       <c r="J117" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K117" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="B118" s="18">
@@ -4427,6 +4757,9 @@
       <c r="J118" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K118" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="119" ht="30" customHeight="1">
       <c r="B119" s="18">
@@ -4456,6 +4789,9 @@
       <c r="J119" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K119" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="120" ht="30" customHeight="1">
       <c r="B120" s="18">
@@ -4485,6 +4821,9 @@
       <c r="J120" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K120" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="121" ht="30" customHeight="1">
       <c r="B121" s="18">
@@ -4514,6 +4853,9 @@
       <c r="J121" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K121" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="18">
@@ -4543,6 +4885,9 @@
       <c r="J122" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K122" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="123" ht="30" customHeight="1">
       <c r="B123" s="18">
@@ -4572,6 +4917,9 @@
       <c r="J123" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K123" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="124" ht="30" customHeight="1">
       <c r="B124" s="18">
@@ -4601,6 +4949,9 @@
       <c r="J124" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K124" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="125" ht="30" customHeight="1">
       <c r="B125" s="18">
@@ -4630,6 +4981,9 @@
       <c r="J125" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K125" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="126" ht="30" customHeight="1">
       <c r="B126" s="18">
@@ -4659,6 +5013,9 @@
       <c r="J126" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K126" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="127" ht="30" customHeight="1">
       <c r="B127" s="18">
@@ -4688,6 +5045,9 @@
       <c r="J127" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K127" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="128" ht="30" customHeight="1">
       <c r="B128" s="18">
@@ -4717,6 +5077,9 @@
       <c r="J128" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K128" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="129" ht="30" customHeight="1">
       <c r="B129" s="18">
@@ -4746,6 +5109,9 @@
       <c r="J129" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K129" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="B130" s="18">
@@ -4775,6 +5141,9 @@
       <c r="J130" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K130" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="18">
@@ -4804,6 +5173,9 @@
       <c r="J131" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K131" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="B132" s="18">
@@ -4833,6 +5205,9 @@
       <c r="J132" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K132" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="B133" s="18">
@@ -4862,6 +5237,9 @@
       <c r="J133" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K133" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="B134" s="18">
@@ -4891,6 +5269,9 @@
       <c r="J134" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K134" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="135" ht="30" customHeight="1">
       <c r="B135" s="18">
@@ -4920,6 +5301,9 @@
       <c r="J135" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K135" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="136" ht="30" customHeight="1">
       <c r="B136" s="18">
@@ -4949,6 +5333,9 @@
       <c r="J136" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K136" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="137" ht="30" customHeight="1">
       <c r="B137" s="18">
@@ -4978,6 +5365,9 @@
       <c r="J137" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K137" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="138" ht="30" customHeight="1">
       <c r="B138" s="18">
@@ -5007,6 +5397,9 @@
       <c r="J138" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K138" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="139" ht="30" customHeight="1">
       <c r="B139" s="18">
@@ -5036,6 +5429,9 @@
       <c r="J139" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K139" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="18">
@@ -5065,6 +5461,9 @@
       <c r="J140" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K140" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="141" ht="30" customHeight="1">
       <c r="B141" s="18">
@@ -5094,6 +5493,9 @@
       <c r="J141" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K141" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="142" ht="30" customHeight="1">
       <c r="B142" s="18">
@@ -5123,6 +5525,9 @@
       <c r="J142" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K142" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="143" ht="30" customHeight="1">
       <c r="B143" s="18">
@@ -5152,6 +5557,9 @@
       <c r="J143" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K143" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="144" ht="30" customHeight="1">
       <c r="B144" s="18">
@@ -5181,6 +5589,9 @@
       <c r="J144" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K144" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="145" ht="30" customHeight="1">
       <c r="B145" s="18">
@@ -5210,6 +5621,9 @@
       <c r="J145" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K145" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="146" ht="30" customHeight="1">
       <c r="B146" s="18">
@@ -5239,6 +5653,9 @@
       <c r="J146" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K146" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="147" ht="30" customHeight="1">
       <c r="B147" s="18">
@@ -5268,6 +5685,9 @@
       <c r="J147" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K147" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="148" ht="30" customHeight="1">
       <c r="B148" s="18">
@@ -5297,6 +5717,9 @@
       <c r="J148" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K148" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="18">
@@ -5326,6 +5749,9 @@
       <c r="J149" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K149" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="150" ht="30" customHeight="1">
       <c r="B150" s="18">
@@ -5355,6 +5781,9 @@
       <c r="J150" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K150" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="151" ht="30" customHeight="1">
       <c r="B151" s="18">
@@ -5384,6 +5813,9 @@
       <c r="J151" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K151" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="152" ht="30" customHeight="1">
       <c r="B152" s="18">
@@ -5413,6 +5845,9 @@
       <c r="J152" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K152" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="153" ht="30" customHeight="1">
       <c r="B153" s="18">
@@ -5442,6 +5877,9 @@
       <c r="J153" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K153" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="154" ht="30" customHeight="1">
       <c r="B154" s="18">
@@ -5471,6 +5909,9 @@
       <c r="J154" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K154" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="155" ht="30" customHeight="1">
       <c r="B155" s="18">
@@ -5500,6 +5941,9 @@
       <c r="J155" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K155" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="156" ht="30" customHeight="1">
       <c r="B156" s="18">
@@ -5529,6 +5973,9 @@
       <c r="J156" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K156" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="157" ht="30" customHeight="1">
       <c r="B157" s="18">
@@ -5558,6 +6005,9 @@
       <c r="J157" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K157" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="18">
@@ -5587,6 +6037,9 @@
       <c r="J158" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K158" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="159" ht="30" customHeight="1">
       <c r="B159" s="18">
@@ -5616,6 +6069,9 @@
       <c r="J159" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K159" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="160" ht="30" customHeight="1">
       <c r="B160" s="18">
@@ -5645,6 +6101,9 @@
       <c r="J160" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K160" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="161" ht="30" customHeight="1">
       <c r="B161" s="18">
@@ -5674,6 +6133,9 @@
       <c r="J161" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K161" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="162" ht="30" customHeight="1">
       <c r="B162" s="18">
@@ -5703,6 +6165,9 @@
       <c r="J162" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K162" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="163" ht="30" customHeight="1">
       <c r="B163" s="18">
@@ -5732,6 +6197,9 @@
       <c r="J163" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K163" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="164" ht="30" customHeight="1">
       <c r="B164" s="18">
@@ -5761,6 +6229,9 @@
       <c r="J164" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K164" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="165" ht="30" customHeight="1">
       <c r="B165" s="18">
@@ -5790,6 +6261,9 @@
       <c r="J165" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K165" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="166" ht="30" customHeight="1">
       <c r="B166" s="18">
@@ -5819,6 +6293,9 @@
       <c r="J166" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K166" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="18">
@@ -5848,6 +6325,9 @@
       <c r="J167" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K167" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="168" ht="30" customHeight="1">
       <c r="B168" s="18">
@@ -5877,6 +6357,9 @@
       <c r="J168" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K168" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="169" ht="30" customHeight="1">
       <c r="B169" s="18">
@@ -5906,6 +6389,9 @@
       <c r="J169" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K169" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="170" ht="30" customHeight="1">
       <c r="B170" s="18">
@@ -5935,6 +6421,9 @@
       <c r="J170" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K170" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="171" ht="30" customHeight="1">
       <c r="B171" s="18">
@@ -5964,6 +6453,9 @@
       <c r="J171" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K171" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="172" ht="30" customHeight="1">
       <c r="B172" s="18">
@@ -5993,6 +6485,9 @@
       <c r="J172" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K172" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="173" ht="30" customHeight="1">
       <c r="B173" s="18">
@@ -6022,6 +6517,9 @@
       <c r="J173" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K173" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="174" ht="30" customHeight="1">
       <c r="B174" s="18">
@@ -6051,6 +6549,9 @@
       <c r="J174" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K174" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="175" ht="30" customHeight="1">
       <c r="B175" s="18">
@@ -6080,6 +6581,9 @@
       <c r="J175" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K175" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="18">
@@ -6109,6 +6613,9 @@
       <c r="J176" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K176" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="177" ht="30" customHeight="1">
       <c r="B177" s="18">
@@ -6138,6 +6645,9 @@
       <c r="J177" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K177" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="178" ht="30" customHeight="1">
       <c r="B178" s="18">
@@ -6167,6 +6677,9 @@
       <c r="J178" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K178" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="179" ht="30" customHeight="1">
       <c r="B179" s="18">
@@ -6196,6 +6709,9 @@
       <c r="J179" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K179" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="180" ht="30" customHeight="1">
       <c r="B180" s="18">
@@ -6225,6 +6741,9 @@
       <c r="J180" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K180" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="181" ht="30" customHeight="1">
       <c r="B181" s="18">
@@ -6254,6 +6773,9 @@
       <c r="J181" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K181" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="182" ht="30" customHeight="1">
       <c r="B182" s="18">
@@ -6283,6 +6805,9 @@
       <c r="J182" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K182" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="183" ht="30" customHeight="1">
       <c r="B183" s="18">
@@ -6312,6 +6837,9 @@
       <c r="J183" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K183" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="184" ht="30" customHeight="1">
       <c r="B184" s="18">
@@ -6341,6 +6869,9 @@
       <c r="J184" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K184" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="18">
@@ -6370,6 +6901,9 @@
       <c r="J185" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K185" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="186" ht="30" customHeight="1">
       <c r="B186" s="18">
@@ -6399,6 +6933,9 @@
       <c r="J186" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K186" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="187" ht="30" customHeight="1">
       <c r="B187" s="18">
@@ -6428,6 +6965,9 @@
       <c r="J187" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K187" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="188" ht="30" customHeight="1">
       <c r="B188" s="18">
@@ -6457,6 +6997,9 @@
       <c r="J188" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K188" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="189" ht="30" customHeight="1">
       <c r="B189" s="18">
@@ -6486,6 +7029,9 @@
       <c r="J189" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K189" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="190" ht="30" customHeight="1">
       <c r="B190" s="18">
@@ -6515,6 +7061,9 @@
       <c r="J190" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K190" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="191" ht="30" customHeight="1">
       <c r="B191" s="18">
@@ -6544,6 +7093,9 @@
       <c r="J191" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K191" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="192" ht="30" customHeight="1">
       <c r="B192" s="18">
@@ -6573,6 +7125,9 @@
       <c r="J192" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K192" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="193" ht="30" customHeight="1">
       <c r="B193" s="18">
@@ -6602,6 +7157,9 @@
       <c r="J193" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K193" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="194" ht="30" customHeight="1">
       <c r="B194" s="18">
@@ -6631,6 +7189,9 @@
       <c r="J194" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K194" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="195" ht="30" customHeight="1">
       <c r="B195" s="18">
@@ -6660,6 +7221,9 @@
       <c r="J195" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K195" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="196" ht="30" customHeight="1">
       <c r="B196" s="18">
@@ -6689,6 +7253,9 @@
       <c r="J196" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K196" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="197" ht="30" customHeight="1">
       <c r="B197" s="18">
@@ -6718,6 +7285,9 @@
       <c r="J197" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K197" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="198" ht="30" customHeight="1">
       <c r="B198" s="18">
@@ -6747,6 +7317,9 @@
       <c r="J198" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K198" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="199" ht="30" customHeight="1">
       <c r="B199" s="18">
@@ -6776,6 +7349,9 @@
       <c r="J199" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K199" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="200" ht="30" customHeight="1">
       <c r="B200" s="18">
@@ -6805,6 +7381,9 @@
       <c r="J200" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K200" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="201" ht="30" customHeight="1">
       <c r="B201" s="18">
@@ -6834,6 +7413,9 @@
       <c r="J201" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K201" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="202" ht="30" customHeight="1">
       <c r="B202" s="18">
@@ -6863,6 +7445,9 @@
       <c r="J202" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K202" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="B203" s="18">
@@ -6892,6 +7477,9 @@
       <c r="J203" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K203" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="204" ht="30" customHeight="1">
       <c r="B204" s="18">
@@ -6921,6 +7509,9 @@
       <c r="J204" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K204" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="205" ht="30" customHeight="1">
       <c r="B205" s="18">
@@ -6950,6 +7541,9 @@
       <c r="J205" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K205" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="206" ht="30" customHeight="1">
       <c r="B206" s="18">
@@ -6979,6 +7573,9 @@
       <c r="J206" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K206" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="207" ht="30" customHeight="1">
       <c r="B207" s="18">
@@ -7008,6 +7605,9 @@
       <c r="J207" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K207" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="208" ht="30" customHeight="1">
       <c r="B208" s="18">
@@ -7037,6 +7637,9 @@
       <c r="J208" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K208" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="209" ht="30" customHeight="1">
       <c r="B209" s="18">
@@ -7066,6 +7669,9 @@
       <c r="J209" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K209" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="210" ht="30" customHeight="1">
       <c r="B210" s="18">
@@ -7095,6 +7701,9 @@
       <c r="J210" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K210" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="211" ht="30" customHeight="1">
       <c r="B211" s="18">
@@ -7124,6 +7733,9 @@
       <c r="J211" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K211" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="212" ht="30" customHeight="1">
       <c r="B212" s="18">
@@ -7153,6 +7765,9 @@
       <c r="J212" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K212" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="213" ht="30" customHeight="1">
       <c r="B213" s="18">
@@ -7182,6 +7797,9 @@
       <c r="J213" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K213" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="214" ht="30" customHeight="1">
       <c r="B214" s="18">
@@ -7211,6 +7829,9 @@
       <c r="J214" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K214" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="215" ht="30" customHeight="1">
       <c r="B215" s="18">
@@ -7240,6 +7861,9 @@
       <c r="J215" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K215" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="216" ht="30" customHeight="1">
       <c r="B216" s="18">
@@ -7269,6 +7893,9 @@
       <c r="J216" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K216" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="217" ht="30" customHeight="1">
       <c r="B217" s="18">
@@ -7298,6 +7925,9 @@
       <c r="J217" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K217" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="218" ht="30" customHeight="1">
       <c r="B218" s="18">
@@ -7327,6 +7957,9 @@
       <c r="J218" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K218" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="219" ht="30" customHeight="1">
       <c r="B219" s="18">
@@ -7356,6 +7989,9 @@
       <c r="J219" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K219" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="220" ht="30" customHeight="1">
       <c r="B220" s="18">
@@ -7385,6 +8021,9 @@
       <c r="J220" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K220" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="221" ht="30" customHeight="1">
       <c r="B221" s="18">
@@ -7414,6 +8053,9 @@
       <c r="J221" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K221" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="222" ht="30" customHeight="1">
       <c r="B222" s="18">
@@ -7443,6 +8085,9 @@
       <c r="J222" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K222" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="223" ht="30" customHeight="1">
       <c r="B223" s="18">
@@ -7472,6 +8117,9 @@
       <c r="J223" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K223" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="224" ht="30" customHeight="1">
       <c r="B224" s="18">
@@ -7501,6 +8149,9 @@
       <c r="J224" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K224" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="225" ht="30" customHeight="1">
       <c r="B225" s="18">
@@ -7530,6 +8181,9 @@
       <c r="J225" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K225" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="226" ht="30" customHeight="1">
       <c r="B226" s="18">
@@ -7559,6 +8213,9 @@
       <c r="J226" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K226" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="227" ht="30" customHeight="1">
       <c r="B227" s="18">
@@ -7588,6 +8245,9 @@
       <c r="J227" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K227" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="228" ht="30" customHeight="1">
       <c r="B228" s="18">
@@ -7617,6 +8277,9 @@
       <c r="J228" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K228" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="229" ht="30" customHeight="1">
       <c r="B229" s="18">
@@ -7646,6 +8309,9 @@
       <c r="J229" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K229" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="230" ht="30" customHeight="1">
       <c r="B230" s="18">
@@ -7675,6 +8341,9 @@
       <c r="J230" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K230" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="231" ht="30" customHeight="1">
       <c r="B231" s="18">
@@ -7704,6 +8373,9 @@
       <c r="J231" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K231" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="232" ht="30" customHeight="1">
       <c r="B232" s="18">
@@ -7733,6 +8405,9 @@
       <c r="J232" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K232" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="233" ht="30" customHeight="1">
       <c r="B233" s="18">
@@ -7762,6 +8437,9 @@
       <c r="J233" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K233" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="234" ht="30" customHeight="1">
       <c r="B234" s="18">
@@ -7791,6 +8469,9 @@
       <c r="J234" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K234" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="235" ht="30" customHeight="1">
       <c r="B235" s="18">
@@ -7820,6 +8501,9 @@
       <c r="J235" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K235" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="236" ht="30" customHeight="1">
       <c r="B236" s="18">
@@ -7849,6 +8533,9 @@
       <c r="J236" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K236" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="237" ht="30" customHeight="1">
       <c r="B237" s="18">
@@ -7878,6 +8565,9 @@
       <c r="J237" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K237" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="238" ht="30" customHeight="1">
       <c r="B238" s="18">
@@ -7907,6 +8597,9 @@
       <c r="J238" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K238" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="239" ht="30" customHeight="1">
       <c r="B239" s="18">
@@ -7936,6 +8629,9 @@
       <c r="J239" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K239" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="240" ht="30" customHeight="1">
       <c r="B240" s="18">
@@ -7965,6 +8661,9 @@
       <c r="J240" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K240" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="241" ht="30" customHeight="1">
       <c r="B241" s="18">
@@ -7994,6 +8693,9 @@
       <c r="J241" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K241" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="242" ht="30" customHeight="1">
       <c r="B242" s="18">
@@ -8023,6 +8725,9 @@
       <c r="J242" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K242" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="243" ht="30" customHeight="1">
       <c r="B243" s="18">
@@ -8052,6 +8757,9 @@
       <c r="J243" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K243" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="244" ht="30" customHeight="1">
       <c r="B244" s="18">
@@ -8081,6 +8789,9 @@
       <c r="J244" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K244" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="245" ht="30" customHeight="1">
       <c r="B245" s="18">
@@ -8110,6 +8821,9 @@
       <c r="J245" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K245" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="246" ht="30" customHeight="1">
       <c r="B246" s="18">
@@ -8139,6 +8853,9 @@
       <c r="J246" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K246" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="247" ht="30" customHeight="1">
       <c r="B247" s="18">
@@ -8168,6 +8885,9 @@
       <c r="J247" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K247" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="248" ht="30" customHeight="1">
       <c r="B248" s="18">
@@ -8197,6 +8917,9 @@
       <c r="J248" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K248" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="249" ht="30" customHeight="1">
       <c r="B249" s="18">
@@ -8226,6 +8949,9 @@
       <c r="J249" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K249" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="250" ht="30" customHeight="1">
       <c r="B250" s="18">
@@ -8255,6 +8981,9 @@
       <c r="J250" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K250" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="251" ht="30" customHeight="1">
       <c r="B251" s="18">
@@ -8284,6 +9013,9 @@
       <c r="J251" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K251" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="252" ht="30" customHeight="1">
       <c r="B252" s="18">
@@ -8313,6 +9045,9 @@
       <c r="J252" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K252" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="253" ht="30" customHeight="1">
       <c r="B253" s="18">
@@ -8342,6 +9077,9 @@
       <c r="J253" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K253" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="254" ht="30" customHeight="1">
       <c r="B254" s="18">
@@ -8371,6 +9109,9 @@
       <c r="J254" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K254" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="255" ht="30" customHeight="1">
       <c r="B255" s="18">
@@ -8400,6 +9141,9 @@
       <c r="J255" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K255" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="256" ht="30" customHeight="1">
       <c r="B256" s="18">
@@ -8429,6 +9173,9 @@
       <c r="J256" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K256" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="257" ht="30" customHeight="1">
       <c r="B257" s="18">
@@ -8458,6 +9205,9 @@
       <c r="J257" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K257" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="258" ht="30" customHeight="1">
       <c r="B258" s="18">
@@ -8487,6 +9237,9 @@
       <c r="J258" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K258" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="259" ht="30" customHeight="1">
       <c r="B259" s="18">
@@ -8516,6 +9269,9 @@
       <c r="J259" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K259" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="260" ht="30" customHeight="1">
       <c r="B260" s="18">
@@ -8545,6 +9301,9 @@
       <c r="J260" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K260" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="261" ht="30" customHeight="1">
       <c r="B261" s="18">
@@ -8574,6 +9333,9 @@
       <c r="J261" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K261" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="262" ht="30" customHeight="1">
       <c r="B262" s="18">
@@ -8603,6 +9365,9 @@
       <c r="J262" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K262" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="263" ht="30" customHeight="1">
       <c r="B263" s="18">
@@ -8632,6 +9397,9 @@
       <c r="J263" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K263" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="264" ht="30" customHeight="1">
       <c r="B264" s="18">
@@ -8661,6 +9429,9 @@
       <c r="J264" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K264" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="265" ht="30" customHeight="1">
       <c r="B265" s="18">
@@ -8690,6 +9461,9 @@
       <c r="J265" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K265" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="266" ht="30" customHeight="1">
       <c r="B266" s="18">
@@ -8719,6 +9493,9 @@
       <c r="J266" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K266" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="267" ht="30" customHeight="1">
       <c r="B267" s="18">
@@ -8748,6 +9525,9 @@
       <c r="J267" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K267" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="268" ht="30" customHeight="1">
       <c r="B268" s="18">
@@ -8777,6 +9557,9 @@
       <c r="J268" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K268" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="269" ht="30" customHeight="1">
       <c r="B269" s="18">
@@ -8806,6 +9589,9 @@
       <c r="J269" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K269" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="270" ht="30" customHeight="1">
       <c r="B270" s="18">
@@ -8835,6 +9621,9 @@
       <c r="J270" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K270" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="271" ht="30" customHeight="1">
       <c r="B271" s="18">
@@ -8864,6 +9653,9 @@
       <c r="J271" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K271" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="272" ht="30" customHeight="1">
       <c r="B272" s="18">
@@ -8893,6 +9685,9 @@
       <c r="J272" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K272" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="273" ht="30" customHeight="1">
       <c r="B273" s="18">
@@ -8922,6 +9717,9 @@
       <c r="J273" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K273" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="274" ht="30" customHeight="1">
       <c r="B274" s="18">
@@ -8951,6 +9749,9 @@
       <c r="J274" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K274" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="275" ht="30" customHeight="1">
       <c r="B275" s="18">
@@ -8980,6 +9781,9 @@
       <c r="J275" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K275" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="276" ht="30" customHeight="1">
       <c r="B276" s="18">
@@ -9009,6 +9813,9 @@
       <c r="J276" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K276" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="277" ht="30" customHeight="1">
       <c r="B277" s="18">
@@ -9038,6 +9845,9 @@
       <c r="J277" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K277" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="278" ht="30" customHeight="1">
       <c r="B278" s="18">
@@ -9067,6 +9877,9 @@
       <c r="J278" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K278" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="279" ht="30" customHeight="1">
       <c r="B279" s="18">
@@ -9096,6 +9909,9 @@
       <c r="J279" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K279" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="280" ht="30" customHeight="1">
       <c r="B280" s="18">
@@ -9125,6 +9941,9 @@
       <c r="J280" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K280" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="281" ht="30" customHeight="1">
       <c r="B281" s="18">
@@ -9154,6 +9973,9 @@
       <c r="J281" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K281" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="282" ht="30" customHeight="1">
       <c r="B282" s="18">
@@ -9183,6 +10005,9 @@
       <c r="J282" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K282" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="283" ht="30" customHeight="1">
       <c r="B283" s="18">
@@ -9212,6 +10037,9 @@
       <c r="J283" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K283" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="284" ht="30" customHeight="1">
       <c r="B284" s="18">
@@ -9241,6 +10069,9 @@
       <c r="J284" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K284" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="285" ht="30" customHeight="1">
       <c r="B285" s="18">
@@ -9270,6 +10101,9 @@
       <c r="J285" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K285" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="286" ht="30" customHeight="1">
       <c r="B286" s="18">
@@ -9299,6 +10133,9 @@
       <c r="J286" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K286" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="287" ht="30" customHeight="1">
       <c r="B287" s="18">
@@ -9328,6 +10165,9 @@
       <c r="J287" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K287" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="288" ht="30" customHeight="1">
       <c r="B288" s="18">
@@ -9357,6 +10197,9 @@
       <c r="J288" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K288" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="289" ht="30" customHeight="1">
       <c r="B289" s="18">
@@ -9386,6 +10229,9 @@
       <c r="J289" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K289" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="290" ht="30" customHeight="1">
       <c r="B290" s="18">
@@ -9415,6 +10261,9 @@
       <c r="J290" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K290" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="291" ht="30" customHeight="1">
       <c r="B291" s="18">
@@ -9444,6 +10293,9 @@
       <c r="J291" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K291" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="292" ht="30" customHeight="1">
       <c r="B292" s="18">
@@ -9473,6 +10325,9 @@
       <c r="J292" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K292" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="293" ht="30" customHeight="1">
       <c r="B293" s="18">
@@ -9502,6 +10357,9 @@
       <c r="J293" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K293" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="294" ht="30" customHeight="1">
       <c r="B294" s="18">
@@ -9531,6 +10389,9 @@
       <c r="J294" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K294" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="295" ht="30" customHeight="1">
       <c r="B295" s="18">
@@ -9560,6 +10421,9 @@
       <c r="J295" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K295" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="296" ht="30" customHeight="1">
       <c r="B296" s="18">
@@ -9589,6 +10453,9 @@
       <c r="J296" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K296" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="297" ht="30" customHeight="1">
       <c r="B297" s="18">
@@ -9618,6 +10485,9 @@
       <c r="J297" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K297" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="298" ht="30" customHeight="1">
       <c r="B298" s="18">
@@ -9647,6 +10517,9 @@
       <c r="J298" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K298" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="299" ht="30" customHeight="1">
       <c r="B299" s="18">
@@ -9676,6 +10549,9 @@
       <c r="J299" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K299" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="300" ht="30" customHeight="1">
       <c r="B300" s="18">
@@ -9705,6 +10581,9 @@
       <c r="J300" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K300" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="301" ht="30" customHeight="1">
       <c r="B301" s="18">
@@ -9734,6 +10613,9 @@
       <c r="J301" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K301" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="302" ht="30" customHeight="1">
       <c r="B302" s="18">
@@ -9763,6 +10645,9 @@
       <c r="J302" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K302" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="303" ht="30" customHeight="1">
       <c r="B303" s="18">
@@ -9792,6 +10677,9 @@
       <c r="J303" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K303" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="304" ht="30" customHeight="1">
       <c r="B304" s="18">
@@ -9821,6 +10709,9 @@
       <c r="J304" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K304" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="305" ht="30" customHeight="1">
       <c r="B305" s="18">
@@ -9850,6 +10741,9 @@
       <c r="J305" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K305" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="306" ht="30" customHeight="1">
       <c r="B306" s="18">
@@ -9879,6 +10773,9 @@
       <c r="J306" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K306" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="307" ht="30" customHeight="1">
       <c r="B307" s="18">
@@ -9908,6 +10805,9 @@
       <c r="J307" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K307" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="308" ht="30" customHeight="1">
       <c r="B308" s="18">
@@ -9937,6 +10837,9 @@
       <c r="J308" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K308" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="309" ht="30" customHeight="1">
       <c r="B309" s="18">
@@ -9966,6 +10869,9 @@
       <c r="J309" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K309" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="310" ht="30" customHeight="1">
       <c r="B310" s="18">
@@ -9995,6 +10901,9 @@
       <c r="J310" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K310" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="311" ht="30" customHeight="1">
       <c r="B311" s="18">
@@ -10024,6 +10933,9 @@
       <c r="J311" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K311" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="312" ht="30" customHeight="1">
       <c r="B312" s="18">
@@ -10053,6 +10965,9 @@
       <c r="J312" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K312" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="313" ht="30" customHeight="1">
       <c r="B313" s="18">
@@ -10082,6 +10997,9 @@
       <c r="J313" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K313" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="314" ht="30" customHeight="1">
       <c r="B314" s="18">
@@ -10111,6 +11029,9 @@
       <c r="J314" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K314" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="315" ht="30" customHeight="1">
       <c r="B315" s="18">
@@ -10140,6 +11061,9 @@
       <c r="J315" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K315" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="316" ht="30" customHeight="1">
       <c r="B316" s="18">
@@ -10169,6 +11093,9 @@
       <c r="J316" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K316" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="317" ht="30" customHeight="1">
       <c r="B317" s="18">
@@ -10198,6 +11125,9 @@
       <c r="J317" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K317" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="318" ht="30" customHeight="1">
       <c r="B318" s="18">
@@ -10227,6 +11157,9 @@
       <c r="J318" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K318" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="319" ht="30" customHeight="1">
       <c r="B319" s="18">
@@ -10256,6 +11189,9 @@
       <c r="J319" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K319" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="320" ht="30" customHeight="1">
       <c r="B320" s="18">
@@ -10285,6 +11221,9 @@
       <c r="J320" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K320" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="321" ht="30" customHeight="1">
       <c r="B321" s="18">
@@ -10314,6 +11253,9 @@
       <c r="J321" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K321" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="322" ht="30" customHeight="1">
       <c r="B322" s="18">
@@ -10343,6 +11285,9 @@
       <c r="J322" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K322" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="323" ht="30" customHeight="1">
       <c r="B323" s="18">
@@ -10372,6 +11317,9 @@
       <c r="J323" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K323" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="324" ht="30" customHeight="1">
       <c r="B324" s="18">
@@ -10401,6 +11349,9 @@
       <c r="J324" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K324" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="325" ht="30" customHeight="1">
       <c r="B325" s="18">
@@ -10430,6 +11381,9 @@
       <c r="J325" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K325" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="326" ht="30" customHeight="1">
       <c r="B326" s="18">
@@ -10459,6 +11413,9 @@
       <c r="J326" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K326" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="327" ht="30" customHeight="1">
       <c r="B327" s="18">
@@ -10488,6 +11445,9 @@
       <c r="J327" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K327" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="328" ht="30" customHeight="1">
       <c r="B328" s="18">
@@ -10517,6 +11477,9 @@
       <c r="J328" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K328" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="329" ht="30" customHeight="1">
       <c r="B329" s="18">
@@ -10546,6 +11509,9 @@
       <c r="J329" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K329" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="330" ht="30" customHeight="1">
       <c r="B330" s="18">
@@ -10575,6 +11541,9 @@
       <c r="J330" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K330" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="331" ht="30" customHeight="1">
       <c r="B331" s="18">
@@ -10604,6 +11573,9 @@
       <c r="J331" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K331" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="332" ht="30" customHeight="1">
       <c r="B332" s="18">
@@ -10633,6 +11605,9 @@
       <c r="J332" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K332" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="333" ht="30" customHeight="1">
       <c r="B333" s="18">
@@ -10662,6 +11637,9 @@
       <c r="J333" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K333" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="334" ht="30" customHeight="1">
       <c r="B334" s="18">
@@ -10691,6 +11669,9 @@
       <c r="J334" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K334" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="335" ht="30" customHeight="1">
       <c r="B335" s="18">
@@ -10720,6 +11701,9 @@
       <c r="J335" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K335" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="336" ht="30" customHeight="1">
       <c r="B336" s="18">
@@ -10749,6 +11733,9 @@
       <c r="J336" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K336" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="337" ht="30" customHeight="1">
       <c r="B337" s="18">
@@ -10778,6 +11765,9 @@
       <c r="J337" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K337" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="338" ht="30" customHeight="1">
       <c r="B338" s="18">
@@ -10807,6 +11797,9 @@
       <c r="J338" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K338" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="339" ht="30" customHeight="1">
       <c r="B339" s="18">
@@ -10836,6 +11829,9 @@
       <c r="J339" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K339" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="340" ht="30" customHeight="1">
       <c r="B340" s="18">
@@ -10865,6 +11861,9 @@
       <c r="J340" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K340" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="341" ht="30" customHeight="1">
       <c r="B341" s="18">
@@ -10894,6 +11893,9 @@
       <c r="J341" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K341" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="342" ht="30" customHeight="1">
       <c r="B342" s="18">
@@ -10923,6 +11925,9 @@
       <c r="J342" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K342" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="343" ht="30" customHeight="1">
       <c r="B343" s="18">
@@ -10952,6 +11957,9 @@
       <c r="J343" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K343" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="344" ht="30" customHeight="1">
       <c r="B344" s="18">
@@ -10981,6 +11989,9 @@
       <c r="J344" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K344" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="345" ht="30" customHeight="1">
       <c r="B345" s="18">
@@ -11010,6 +12021,9 @@
       <c r="J345" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K345" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="346" ht="30" customHeight="1">
       <c r="B346" s="18">
@@ -11039,6 +12053,9 @@
       <c r="J346" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K346" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="347" ht="30" customHeight="1">
       <c r="B347" s="18">
@@ -11068,6 +12085,9 @@
       <c r="J347" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K347" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="348" ht="30" customHeight="1">
       <c r="B348" s="18">
@@ -11097,6 +12117,9 @@
       <c r="J348" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K348" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="349" ht="30" customHeight="1">
       <c r="B349" s="18">
@@ -11126,6 +12149,9 @@
       <c r="J349" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K349" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="350" ht="30" customHeight="1">
       <c r="B350" s="18">
@@ -11155,6 +12181,9 @@
       <c r="J350" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K350" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="351" ht="30" customHeight="1">
       <c r="B351" s="18">
@@ -11184,6 +12213,9 @@
       <c r="J351" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K351" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="352" ht="30" customHeight="1">
       <c r="B352" s="18">
@@ -11213,6 +12245,9 @@
       <c r="J352" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K352" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="353" ht="30" customHeight="1">
       <c r="B353" s="18">
@@ -11242,6 +12277,9 @@
       <c r="J353" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K353" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="354" ht="30" customHeight="1">
       <c r="B354" s="18">
@@ -11271,6 +12309,9 @@
       <c r="J354" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K354" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="355" ht="30" customHeight="1">
       <c r="B355" s="18">
@@ -11300,6 +12341,9 @@
       <c r="J355" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K355" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="356" ht="30" customHeight="1">
       <c r="B356" s="18">
@@ -11329,6 +12373,9 @@
       <c r="J356" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K356" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="357" ht="30" customHeight="1">
       <c r="B357" s="18">
@@ -11358,6 +12405,9 @@
       <c r="J357" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K357" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="358" ht="30" customHeight="1">
       <c r="B358" s="18">
@@ -11387,6 +12437,9 @@
       <c r="J358" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K358" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="359" ht="30" customHeight="1">
       <c r="B359" s="18">
@@ -11416,6 +12469,9 @@
       <c r="J359" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K359" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="360" ht="30" customHeight="1">
       <c r="B360" s="18">
@@ -11445,6 +12501,9 @@
       <c r="J360" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K360" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="361" ht="30" customHeight="1">
       <c r="B361" s="18">
@@ -11474,6 +12533,9 @@
       <c r="J361" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K361" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="362" ht="30" customHeight="1">
       <c r="B362" s="18">
@@ -11503,6 +12565,9 @@
       <c r="J362" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K362" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="363" ht="30" customHeight="1">
       <c r="B363" s="18">
@@ -11532,6 +12597,9 @@
       <c r="J363" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K363" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="364" ht="30" customHeight="1">
       <c r="B364" s="18">
@@ -11561,6 +12629,9 @@
       <c r="J364" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K364" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="365" ht="30" customHeight="1">
       <c r="B365" s="18">
@@ -11590,6 +12661,9 @@
       <c r="J365" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K365" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="366" ht="30" customHeight="1">
       <c r="B366" s="18">
@@ -11619,6 +12693,9 @@
       <c r="J366" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K366" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="367" ht="30" customHeight="1">
       <c r="B367" s="18">
@@ -11648,6 +12725,9 @@
       <c r="J367" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K367" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="368" ht="30" customHeight="1">
       <c r="B368" s="18">
@@ -11677,6 +12757,9 @@
       <c r="J368" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K368" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="369" ht="30" customHeight="1">
       <c r="B369" s="18">
@@ -11706,6 +12789,9 @@
       <c r="J369" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K369" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="370" ht="30" customHeight="1">
       <c r="B370" s="18">
@@ -11735,6 +12821,9 @@
       <c r="J370" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K370" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="371" ht="30" customHeight="1">
       <c r="B371" s="18">
@@ -11764,6 +12853,9 @@
       <c r="J371" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K371" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="372" ht="30" customHeight="1">
       <c r="B372" s="18">
@@ -11793,6 +12885,9 @@
       <c r="J372" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K372" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="373" ht="30" customHeight="1">
       <c r="B373" s="18">
@@ -11822,6 +12917,9 @@
       <c r="J373" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K373" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="374" ht="30" customHeight="1">
       <c r="B374" s="18">
@@ -11851,6 +12949,9 @@
       <c r="J374" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K374" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="375" ht="30" customHeight="1">
       <c r="B375" s="18">
@@ -11880,6 +12981,9 @@
       <c r="J375" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K375" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="376" ht="30" customHeight="1">
       <c r="B376" s="18">
@@ -11909,6 +13013,9 @@
       <c r="J376" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K376" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="377" ht="30" customHeight="1">
       <c r="B377" s="18">
@@ -11938,6 +13045,9 @@
       <c r="J377" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K377" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="378" ht="30" customHeight="1">
       <c r="B378" s="18">
@@ -11967,6 +13077,9 @@
       <c r="J378" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K378" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="379" ht="30" customHeight="1">
       <c r="B379" s="18">
@@ -11996,6 +13109,9 @@
       <c r="J379" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K379" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="380" ht="30" customHeight="1">
       <c r="B380" s="18">
@@ -12025,6 +13141,9 @@
       <c r="J380" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K380" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="381" ht="30" customHeight="1">
       <c r="B381" s="18">
@@ -12054,6 +13173,9 @@
       <c r="J381" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K381" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="382" ht="30" customHeight="1">
       <c r="B382" s="18">
@@ -12083,6 +13205,9 @@
       <c r="J382" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K382" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="383" ht="30" customHeight="1">
       <c r="B383" s="18">
@@ -12112,6 +13237,9 @@
       <c r="J383" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K383" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="384" ht="30" customHeight="1">
       <c r="A384" s="21">
@@ -12144,6 +13272,9 @@
       <c r="J384" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K384" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="385" ht="30" customHeight="1">
       <c r="A385" s="21">
@@ -12176,6 +13307,9 @@
       <c r="J385" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K385" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="386" ht="30" customHeight="1">
       <c r="A386" s="21">
@@ -12208,6 +13342,9 @@
       <c r="J386" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K386" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="387" ht="30" customHeight="1">
       <c r="B387" s="18">
@@ -12237,6 +13374,9 @@
       <c r="J387" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K387" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="388" ht="30" customHeight="1">
       <c r="B388" s="18">
@@ -12266,6 +13406,9 @@
       <c r="J388" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K388" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="389" ht="30" customHeight="1">
       <c r="B389" s="18">
@@ -12295,6 +13438,9 @@
       <c r="J389" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K389" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="390" ht="30" customHeight="1">
       <c r="B390" s="18">
@@ -12324,6 +13470,9 @@
       <c r="J390" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K390" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="391" ht="30" customHeight="1">
       <c r="B391" s="18">
@@ -12353,6 +13502,9 @@
       <c r="J391" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K391" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="392" ht="30" customHeight="1">
       <c r="B392" s="18">
@@ -12382,6 +13534,9 @@
       <c r="J392" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K392" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="393" ht="30" customHeight="1">
       <c r="B393" s="18">
@@ -12411,6 +13566,9 @@
       <c r="J393" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K393" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="394" ht="30" customHeight="1">
       <c r="B394" s="18">
@@ -12440,6 +13598,9 @@
       <c r="J394" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K394" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="395" ht="30" customHeight="1">
       <c r="B395" s="18">
@@ -12469,6 +13630,9 @@
       <c r="J395" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K395" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="396" ht="30" customHeight="1">
       <c r="B396" s="18">
@@ -12498,6 +13662,9 @@
       <c r="J396" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K396" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="397" ht="30" customHeight="1">
       <c r="B397" s="18">
@@ -12527,6 +13694,9 @@
       <c r="J397" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K397" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="398" ht="30" customHeight="1">
       <c r="B398" s="18">
@@ -12556,6 +13726,9 @@
       <c r="J398" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K398" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="399" ht="30" customHeight="1">
       <c r="B399" s="18">
@@ -12585,6 +13758,9 @@
       <c r="J399" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K399" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="400" ht="30" customHeight="1">
       <c r="B400" s="18">
@@ -12614,6 +13790,9 @@
       <c r="J400" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K400" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="401" ht="30" customHeight="1">
       <c r="B401" s="18">
@@ -12643,6 +13822,9 @@
       <c r="J401" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K401" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="402" ht="30" customHeight="1">
       <c r="B402" s="18">
@@ -12672,6 +13854,9 @@
       <c r="J402" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K402" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="403" ht="30" customHeight="1">
       <c r="B403" s="18">
@@ -12701,6 +13886,9 @@
       <c r="J403" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K403" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="404" ht="30" customHeight="1">
       <c r="B404" s="18">
@@ -12730,6 +13918,9 @@
       <c r="J404" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K404" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="405" ht="30" customHeight="1">
       <c r="B405" s="18">
@@ -12759,6 +13950,9 @@
       <c r="J405" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K405" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="406" ht="30" customHeight="1">
       <c r="B406" s="18">
@@ -12788,6 +13982,9 @@
       <c r="J406" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K406" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="407" ht="30" customHeight="1">
       <c r="B407" s="18">
@@ -12817,6 +14014,9 @@
       <c r="J407" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K407" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="408" ht="30" customHeight="1">
       <c r="B408" s="18">
@@ -12846,6 +14046,9 @@
       <c r="J408" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K408" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="409" ht="30" customHeight="1">
       <c r="B409" s="18">
@@ -12875,6 +14078,9 @@
       <c r="J409" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K409" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="410" ht="30" customHeight="1">
       <c r="B410" s="18">
@@ -12904,6 +14110,9 @@
       <c r="J410" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K410" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="411" ht="30" customHeight="1">
       <c r="B411" s="18">
@@ -12933,6 +14142,9 @@
       <c r="J411" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K411" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="412" ht="30" customHeight="1">
       <c r="B412" s="18">
@@ -12962,6 +14174,9 @@
       <c r="J412" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K412" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="413" ht="30" customHeight="1">
       <c r="B413" s="18">
@@ -12991,6 +14206,9 @@
       <c r="J413" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K413" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="414" ht="30" customHeight="1">
       <c r="B414" s="18">
@@ -13020,6 +14238,9 @@
       <c r="J414" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K414" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="415" ht="30" customHeight="1">
       <c r="B415" s="18">
@@ -13049,6 +14270,9 @@
       <c r="J415" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K415" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="416" ht="30" customHeight="1">
       <c r="B416" s="18">
@@ -13078,6 +14302,9 @@
       <c r="J416" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K416" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="417" ht="30" customHeight="1">
       <c r="B417" s="18">
@@ -13107,6 +14334,9 @@
       <c r="J417" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K417" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="418" ht="30" customHeight="1">
       <c r="B418" s="18">
@@ -13136,6 +14366,9 @@
       <c r="J418" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K418" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="419" ht="30" customHeight="1">
       <c r="B419" s="18">
@@ -13165,6 +14398,9 @@
       <c r="J419" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K419" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="420" ht="30" customHeight="1">
       <c r="B420" s="18">
@@ -13194,6 +14430,9 @@
       <c r="J420" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K420" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="421" ht="30" customHeight="1">
       <c r="B421" s="18">
@@ -13223,6 +14462,9 @@
       <c r="J421" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K421" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="422" ht="30" customHeight="1">
       <c r="B422" s="18">
@@ -13252,6 +14494,9 @@
       <c r="J422" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K422" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="423" ht="30" customHeight="1">
       <c r="B423" s="18">
@@ -13281,6 +14526,9 @@
       <c r="J423" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K423" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="424" ht="30" customHeight="1">
       <c r="B424" s="18">
@@ -13310,6 +14558,9 @@
       <c r="J424" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K424" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="425" ht="30" customHeight="1">
       <c r="B425" s="18">
@@ -13339,6 +14590,9 @@
       <c r="J425" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K425" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="426" ht="30" customHeight="1">
       <c r="B426" s="18">
@@ -13368,6 +14622,9 @@
       <c r="J426" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K426" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="427" ht="30" customHeight="1">
       <c r="B427" s="18">
@@ -13397,6 +14654,9 @@
       <c r="J427" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K427" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="428" ht="30" customHeight="1">
       <c r="B428" s="18">
@@ -13426,6 +14686,9 @@
       <c r="J428" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K428" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="429" ht="30" customHeight="1">
       <c r="B429" s="18">
@@ -13455,6 +14718,9 @@
       <c r="J429" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K429" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="430" ht="30" customHeight="1">
       <c r="B430" s="18">
@@ -13484,6 +14750,9 @@
       <c r="J430" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K430" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="431" ht="30" customHeight="1">
       <c r="B431" s="18">
@@ -13513,6 +14782,9 @@
       <c r="J431" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K431" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="432" ht="30" customHeight="1">
       <c r="B432" s="18">
@@ -13542,6 +14814,9 @@
       <c r="J432" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K432" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="433" ht="30" customHeight="1">
       <c r="B433" s="18">
@@ -13571,6 +14846,9 @@
       <c r="J433" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K433" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="434" ht="30" customHeight="1">
       <c r="B434" s="18">
@@ -13600,6 +14878,9 @@
       <c r="J434" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K434" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="435" ht="30" customHeight="1">
       <c r="B435" s="18">
@@ -13629,6 +14910,9 @@
       <c r="J435" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K435" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="436" ht="30" customHeight="1">
       <c r="B436" s="18">
@@ -13658,6 +14942,9 @@
       <c r="J436" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K436" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="437" ht="30" customHeight="1">
       <c r="B437" s="18">
@@ -13687,6 +14974,9 @@
       <c r="J437" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K437" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="438" ht="30" customHeight="1">
       <c r="B438" s="18">
@@ -13716,6 +15006,9 @@
       <c r="J438" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K438" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="439" ht="30" customHeight="1">
       <c r="B439" s="18">
@@ -13745,6 +15038,9 @@
       <c r="J439" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K439" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="440" ht="30" customHeight="1">
       <c r="B440" s="18">
@@ -13774,6 +15070,9 @@
       <c r="J440" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K440" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="441" ht="30" customHeight="1">
       <c r="B441" s="18">
@@ -13803,6 +15102,9 @@
       <c r="J441" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K441" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="442" ht="30" customHeight="1">
       <c r="B442" s="18">
@@ -13832,6 +15134,9 @@
       <c r="J442" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K442" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="443" ht="30" customHeight="1">
       <c r="B443" s="18">
@@ -13861,6 +15166,9 @@
       <c r="J443" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K443" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="444" ht="30" customHeight="1">
       <c r="B444" s="18">
@@ -13890,6 +15198,9 @@
       <c r="J444" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K444" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="445" ht="30" customHeight="1">
       <c r="B445" s="18">
@@ -13919,6 +15230,9 @@
       <c r="J445" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K445" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="446" ht="30" customHeight="1">
       <c r="B446" s="18">
@@ -13948,6 +15262,9 @@
       <c r="J446" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K446" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="447" ht="30" customHeight="1">
       <c r="B447" s="18">
@@ -13977,6 +15294,9 @@
       <c r="J447" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K447" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="448" ht="30" customHeight="1">
       <c r="B448" s="18">
@@ -14006,6 +15326,9 @@
       <c r="J448" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K448" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="449" ht="30" customHeight="1">
       <c r="B449" s="18">
@@ -14035,6 +15358,9 @@
       <c r="J449" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K449" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="450" ht="30" customHeight="1">
       <c r="B450" s="18">
@@ -14064,6 +15390,9 @@
       <c r="J450" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K450" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="451" ht="30" customHeight="1">
       <c r="B451" s="18">
@@ -14093,6 +15422,9 @@
       <c r="J451" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K451" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="452" ht="30" customHeight="1">
       <c r="B452" s="18">
@@ -14122,6 +15454,9 @@
       <c r="J452" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K452" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="453" ht="30" customHeight="1">
       <c r="B453" s="18">
@@ -14151,6 +15486,9 @@
       <c r="J453" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K453" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="454" ht="30" customHeight="1">
       <c r="B454" s="18">
@@ -14180,6 +15518,9 @@
       <c r="J454" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K454" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="455" ht="30" customHeight="1">
       <c r="B455" s="18">
@@ -14209,6 +15550,9 @@
       <c r="J455" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K455" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="456" ht="30" customHeight="1">
       <c r="B456" s="18" t="str">
@@ -14238,6 +15582,9 @@
       <c r="J456" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K456" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="457" ht="30" customHeight="1">
       <c r="B457" s="18" t="str">
@@ -14267,6 +15614,9 @@
       <c r="J457" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K457" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="458" ht="30" customHeight="1">
       <c r="B458" s="18" t="str">
@@ -14296,6 +15646,9 @@
       <c r="J458" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K458" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="459" ht="30" customHeight="1">
       <c r="B459" s="18" t="str">
@@ -14325,6 +15678,9 @@
       <c r="J459" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K459" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="460" ht="30" customHeight="1">
       <c r="B460" s="18" t="str">
@@ -14354,6 +15710,9 @@
       <c r="J460" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K460" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="461" ht="30" customHeight="1">
       <c r="B461" s="18" t="str">
@@ -14383,6 +15742,9 @@
       <c r="J461" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K461" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="462" ht="30" customHeight="1">
       <c r="B462" s="18" t="str">
@@ -14412,6 +15774,9 @@
       <c r="J462" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K462" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="463" ht="30" customHeight="1">
       <c r="B463" s="18" t="str">
@@ -14441,6 +15806,9 @@
       <c r="J463" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K463" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="464" ht="30" customHeight="1">
       <c r="B464" s="18" t="str">
@@ -14470,6 +15838,9 @@
       <c r="J464" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K464" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="465" ht="30" customHeight="1">
       <c r="B465" s="18" t="str">
@@ -14499,6 +15870,9 @@
       <c r="J465" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K465" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="466" ht="30" customHeight="1">
       <c r="B466" s="18" t="str">
@@ -14528,6 +15902,9 @@
       <c r="J466" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K466" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="467" ht="30" customHeight="1">
       <c r="B467" s="18" t="str">
@@ -14557,6 +15934,9 @@
       <c r="J467" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K467" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="468" ht="30" customHeight="1">
       <c r="B468" s="18" t="str">
@@ -14586,6 +15966,9 @@
       <c r="J468" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K468" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="469" ht="30" customHeight="1">
       <c r="B469" s="18" t="str">
@@ -14615,6 +15998,9 @@
       <c r="J469" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K469" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="470" ht="30" customHeight="1">
       <c r="B470" s="18" t="str">
@@ -14644,6 +16030,9 @@
       <c r="J470" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K470" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="471" ht="30" customHeight="1">
       <c r="B471" s="18" t="str">
@@ -14673,6 +16062,9 @@
       <c r="J471" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K471" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="472" ht="30" customHeight="1">
       <c r="B472" s="18" t="str">
@@ -14702,6 +16094,9 @@
       <c r="J472" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K472" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="473" ht="30" customHeight="1">
       <c r="B473" s="18" t="str">
@@ -14731,6 +16126,9 @@
       <c r="J473" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K473" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="474" ht="30" customHeight="1">
       <c r="B474" s="18" t="str">
@@ -14760,6 +16158,9 @@
       <c r="J474" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K474" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="475" ht="30" customHeight="1">
       <c r="B475" s="18" t="str">
@@ -14789,6 +16190,9 @@
       <c r="J475" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K475" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="476" ht="30" customHeight="1">
       <c r="B476" s="18" t="str">
@@ -14818,6 +16222,9 @@
       <c r="J476" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K476" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="477" ht="30" customHeight="1">
       <c r="B477" s="18" t="str">
@@ -14847,6 +16254,9 @@
       <c r="J477" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K477" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="478" ht="30" customHeight="1">
       <c r="B478" s="18" t="str">
@@ -14876,6 +16286,9 @@
       <c r="J478" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K478" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="479" ht="30" customHeight="1">
       <c r="B479" s="18" t="str">
@@ -14905,6 +16318,9 @@
       <c r="J479" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K479" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="480" ht="30" customHeight="1">
       <c r="B480" s="18" t="str">
@@ -14934,6 +16350,9 @@
       <c r="J480" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K480" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="481" ht="30" customHeight="1">
       <c r="B481" s="18" t="str">
@@ -14963,6 +16382,9 @@
       <c r="J481" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K481" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="482" ht="30" customHeight="1">
       <c r="B482" s="18" t="str">
@@ -14992,6 +16414,9 @@
       <c r="J482" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K482" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="483" ht="30" customHeight="1">
       <c r="B483" s="18" t="str">
@@ -15021,6 +16446,9 @@
       <c r="J483" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K483" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="484" ht="30" customHeight="1">
       <c r="B484" s="18" t="str">
@@ -15050,6 +16478,9 @@
       <c r="J484" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K484" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="485" ht="30" customHeight="1">
       <c r="B485" s="18" t="str">
@@ -15079,6 +16510,9 @@
       <c r="J485" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K485" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="486" ht="30" customHeight="1">
       <c r="B486" s="18" t="str">
@@ -15108,6 +16542,9 @@
       <c r="J486" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K486" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="487" ht="30" customHeight="1">
       <c r="B487" s="18" t="str">
@@ -15137,6 +16574,9 @@
       <c r="J487" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K487" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="488" ht="30" customHeight="1">
       <c r="B488" s="18" t="str">
@@ -15166,6 +16606,9 @@
       <c r="J488" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K488" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="489" ht="30" customHeight="1">
       <c r="B489" s="18" t="str">
@@ -15195,6 +16638,9 @@
       <c r="J489" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K489" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="490" ht="30" customHeight="1">
       <c r="B490" s="18" t="str">
@@ -15224,6 +16670,9 @@
       <c r="J490" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K490" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="491" ht="30" customHeight="1">
       <c r="B491" s="18" t="str">
@@ -15253,6 +16702,9 @@
       <c r="J491" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K491" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="492" ht="30" customHeight="1">
       <c r="B492" s="18" t="str">
@@ -15282,6 +16734,9 @@
       <c r="J492" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K492" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="493" ht="30" customHeight="1">
       <c r="B493" s="18" t="str">
@@ -15311,6 +16766,9 @@
       <c r="J493" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K493" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="494" ht="30" customHeight="1">
       <c r="B494" s="18" t="str">
@@ -15340,6 +16798,9 @@
       <c r="J494" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K494" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="495" ht="30" customHeight="1">
       <c r="B495" s="18" t="str">
@@ -15369,6 +16830,9 @@
       <c r="J495" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K495" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="496" ht="30" customHeight="1">
       <c r="B496" s="18" t="str">
@@ -15398,6 +16862,9 @@
       <c r="J496" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K496" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="497" ht="30" customHeight="1">
       <c r="B497" s="18" t="str">
@@ -15427,6 +16894,9 @@
       <c r="J497" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K497" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="498" ht="30" customHeight="1">
       <c r="B498" s="18" t="str">
@@ -15456,6 +16926,9 @@
       <c r="J498" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K498" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="499" ht="30" customHeight="1">
       <c r="B499" s="18" t="str">
@@ -15485,6 +16958,9 @@
       <c r="J499" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K499" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="500" ht="30" customHeight="1">
       <c r="B500" s="18" t="str">
@@ -15512,6 +16988,9 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="J500" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K500" s="19" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -15539,7 +17018,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3111"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3111"/>
   </ignoredErrors>
 </worksheet>
 </file>
